--- a/Code/Results/Cases/Case_5_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_197/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9034464341627881</v>
+        <v>0.5528496190351575</v>
       </c>
       <c r="C2">
-        <v>0.1041235983658311</v>
+        <v>0.08710290462138914</v>
       </c>
       <c r="D2">
-        <v>0.07094947236522131</v>
+        <v>0.113681439038146</v>
       </c>
       <c r="E2">
-        <v>0.0502599251651521</v>
+        <v>0.1308403623878931</v>
       </c>
       <c r="F2">
-        <v>0.9088633056261628</v>
+        <v>2.013411602932891</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5709039642290925</v>
+        <v>1.327276427429808</v>
       </c>
       <c r="J2">
-        <v>0.0712282458708362</v>
+        <v>0.1826122813970965</v>
       </c>
       <c r="K2">
-        <v>0.8239073858308927</v>
+        <v>0.33300711553062</v>
       </c>
       <c r="L2">
-        <v>0.1564129274025845</v>
+        <v>0.2848554801963203</v>
       </c>
       <c r="M2">
-        <v>0.1947044249468206</v>
+        <v>0.1863783687266398</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.402698388287462</v>
+        <v>5.381132015499006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7862223180803198</v>
+        <v>0.5198161574487301</v>
       </c>
       <c r="C3">
-        <v>0.09806115268666105</v>
+        <v>0.08495753218657143</v>
       </c>
       <c r="D3">
-        <v>0.06429939466401891</v>
+        <v>0.11230146106967</v>
       </c>
       <c r="E3">
-        <v>0.04984269668578634</v>
+        <v>0.1312754649252188</v>
       </c>
       <c r="F3">
-        <v>0.9042959543819435</v>
+        <v>2.023880063854193</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5813326919044108</v>
+        <v>1.337344355234844</v>
       </c>
       <c r="J3">
-        <v>0.07306872239924722</v>
+        <v>0.1837058974389549</v>
       </c>
       <c r="K3">
-        <v>0.7171344078910664</v>
+        <v>0.3011939872233</v>
       </c>
       <c r="L3">
-        <v>0.1446491066628468</v>
+        <v>0.2829682393676904</v>
       </c>
       <c r="M3">
-        <v>0.1712219845562863</v>
+        <v>0.1803741292745684</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.415288594462467</v>
+        <v>5.416023019337288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7143977415593383</v>
+        <v>0.4996749214235479</v>
       </c>
       <c r="C4">
-        <v>0.09433031090824784</v>
+        <v>0.08362541347447916</v>
       </c>
       <c r="D4">
-        <v>0.06025519701717741</v>
+        <v>0.1114903008318748</v>
       </c>
       <c r="E4">
-        <v>0.04963067391506648</v>
+        <v>0.1315773510262837</v>
       </c>
       <c r="F4">
-        <v>0.9028365091901094</v>
+        <v>2.031125080598912</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5885918775367927</v>
+        <v>1.344034547124426</v>
       </c>
       <c r="J4">
-        <v>0.07425359589607261</v>
+        <v>0.1844162566822192</v>
       </c>
       <c r="K4">
-        <v>0.6516145450005553</v>
+        <v>0.2816919988135567</v>
       </c>
       <c r="L4">
-        <v>0.1375485813274437</v>
+        <v>0.2819061833775365</v>
       </c>
       <c r="M4">
-        <v>0.1568759726391882</v>
+        <v>0.1767492342256602</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.426809908332373</v>
+        <v>5.439667239191238</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6851579374696257</v>
+        <v>0.491503434854252</v>
       </c>
       <c r="C5">
-        <v>0.09280735946133234</v>
+        <v>0.08307885008526483</v>
       </c>
       <c r="D5">
-        <v>0.05861641438414722</v>
+        <v>0.1111688939072266</v>
       </c>
       <c r="E5">
-        <v>0.04955517099692131</v>
+        <v>0.1317091284700993</v>
       </c>
       <c r="F5">
-        <v>0.9025694902963437</v>
+        <v>2.034283263114041</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5917596335467543</v>
+        <v>1.34688882031854</v>
       </c>
       <c r="J5">
-        <v>0.0747501092747731</v>
+        <v>0.1847155255152977</v>
       </c>
       <c r="K5">
-        <v>0.6249166632821073</v>
+        <v>0.2737532130162634</v>
       </c>
       <c r="L5">
-        <v>0.1346843964512772</v>
+        <v>0.2814978089927109</v>
       </c>
       <c r="M5">
-        <v>0.1510460375103975</v>
+        <v>0.1752877284184038</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.432428917110556</v>
+        <v>5.449861444732889</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.680304211607023</v>
+        <v>0.4901487735340027</v>
       </c>
       <c r="C6">
-        <v>0.09255430408396137</v>
+        <v>0.08298786992236984</v>
       </c>
       <c r="D6">
-        <v>0.05834483983594652</v>
+        <v>0.1111160786882053</v>
       </c>
       <c r="E6">
-        <v>0.04954328616898529</v>
+        <v>0.1317315395535665</v>
       </c>
       <c r="F6">
-        <v>0.9025446477129151</v>
+        <v>2.034820112912179</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5922981346385257</v>
+        <v>1.347370502356871</v>
       </c>
       <c r="J6">
-        <v>0.07483337715766503</v>
+        <v>0.1847658107509602</v>
       </c>
       <c r="K6">
-        <v>0.6204833996458348</v>
+        <v>0.2724355088290622</v>
       </c>
       <c r="L6">
-        <v>0.1342105310341779</v>
+        <v>0.281431476760325</v>
       </c>
       <c r="M6">
-        <v>0.1500789021118152</v>
+        <v>0.1750459971017975</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.433416924254658</v>
+        <v>5.451587961510526</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7140032960081157</v>
+        <v>0.4995645703208993</v>
       </c>
       <c r="C7">
-        <v>0.09430978299482007</v>
+        <v>0.08361805734297434</v>
       </c>
       <c r="D7">
-        <v>0.06023305901915421</v>
+        <v>0.1114859291125043</v>
       </c>
       <c r="E7">
-        <v>0.04962961179539072</v>
+        <v>0.1315790927379972</v>
       </c>
       <c r="F7">
-        <v>0.9028315946710563</v>
+        <v>2.031166839424877</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5886337577028407</v>
+        <v>1.344072522572535</v>
       </c>
       <c r="J7">
-        <v>0.0742602368574623</v>
+        <v>0.184420253058744</v>
       </c>
       <c r="K7">
-        <v>0.651254490021671</v>
+        <v>0.2815848987152805</v>
       </c>
       <c r="L7">
-        <v>0.1375098370336687</v>
+        <v>0.2819005768784422</v>
       </c>
       <c r="M7">
-        <v>0.1567972851440231</v>
+        <v>0.1767294602136147</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.426881984804325</v>
+        <v>5.439802457799004</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8629906303843029</v>
+        <v>0.541430711753577</v>
       </c>
       <c r="C8">
-        <v>0.1020347312860892</v>
+        <v>0.0863662741764486</v>
       </c>
       <c r="D8">
-        <v>0.06864810013817646</v>
+        <v>0.1131981527465555</v>
       </c>
       <c r="E8">
-        <v>0.05010677319826051</v>
+        <v>0.1309831909213131</v>
       </c>
       <c r="F8">
-        <v>0.9070028904347254</v>
+        <v>2.016851639868598</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5743186731976202</v>
+        <v>1.33064238977677</v>
       </c>
       <c r="J8">
-        <v>0.07185139496086546</v>
+        <v>0.1829813016901563</v>
       </c>
       <c r="K8">
-        <v>0.7870790348457888</v>
+        <v>0.322031743314767</v>
       </c>
       <c r="L8">
-        <v>0.1523304254866389</v>
+        <v>0.2841847456799158</v>
       </c>
       <c r="M8">
-        <v>0.1865914299936549</v>
+        <v>0.184295379333328</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.406234668863192</v>
+        <v>5.392701765992342</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.156791789194727</v>
+        <v>0.62462757568548</v>
       </c>
       <c r="C9">
-        <v>0.1171395635873367</v>
+        <v>0.09163701885213982</v>
       </c>
       <c r="D9">
-        <v>0.08548581005025113</v>
+        <v>0.1168404206387095</v>
       </c>
       <c r="E9">
-        <v>0.05140268178765517</v>
+        <v>0.1300892273501848</v>
       </c>
       <c r="F9">
-        <v>0.9263515604600343</v>
+        <v>1.995254335404766</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5533046590577513</v>
+        <v>1.308335210573766</v>
       </c>
       <c r="J9">
-        <v>0.06756791261838302</v>
+        <v>0.1804672160897161</v>
       </c>
       <c r="K9">
-        <v>1.054130429094158</v>
+        <v>0.4015774117172839</v>
       </c>
       <c r="L9">
-        <v>0.1824369409158351</v>
+        <v>0.289427388168022</v>
       </c>
       <c r="M9">
-        <v>0.2456896532299027</v>
+        <v>0.1996164312810436</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.397211876636078</v>
+        <v>5.31793894769811</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.374308177376435</v>
+        <v>0.686394457809314</v>
       </c>
       <c r="C10">
-        <v>0.12824640131835</v>
+        <v>0.09543664501090632</v>
       </c>
       <c r="D10">
-        <v>0.09810142888281348</v>
+        <v>0.119687244047789</v>
       </c>
       <c r="E10">
-        <v>0.05258887143553714</v>
+        <v>0.1295985569414153</v>
       </c>
       <c r="F10">
-        <v>0.9481057571463083</v>
+        <v>1.983320862852835</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5425576487164179</v>
+        <v>1.294395729772067</v>
       </c>
       <c r="J10">
-        <v>0.06469683567309925</v>
+        <v>0.1788066158602826</v>
       </c>
       <c r="K10">
-        <v>1.251352479159323</v>
+        <v>0.4601389985058972</v>
       </c>
       <c r="L10">
-        <v>0.2052991140207467</v>
+        <v>0.2937398086165643</v>
       </c>
       <c r="M10">
-        <v>0.2896676438492207</v>
+        <v>0.2111619338697182</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.411800041901159</v>
+        <v>5.273714109866233</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.473780929925482</v>
+        <v>0.7146279456864875</v>
       </c>
       <c r="C11">
-        <v>0.1333099316220654</v>
+        <v>0.09714929256796268</v>
       </c>
       <c r="D11">
-        <v>0.1039033301163954</v>
+        <v>0.1210188971619885</v>
       </c>
       <c r="E11">
-        <v>0.05318273260350992</v>
+        <v>0.1294111435265251</v>
       </c>
       <c r="F11">
-        <v>0.9598112419885325</v>
+        <v>1.978743561948257</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5387790392702385</v>
+        <v>1.288584795770532</v>
       </c>
       <c r="J11">
-        <v>0.06345242213205804</v>
+        <v>0.1780914321352078</v>
       </c>
       <c r="K11">
-        <v>1.341437127551245</v>
+        <v>0.4868021117776209</v>
       </c>
       <c r="L11">
-        <v>0.2158863400801039</v>
+        <v>0.295800705422181</v>
       </c>
       <c r="M11">
-        <v>0.3098311217575471</v>
+        <v>0.2164758458219751</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.423523620733022</v>
+        <v>5.255913687310169</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.511537636795651</v>
+        <v>0.7253381207084431</v>
       </c>
       <c r="C12">
-        <v>0.1352297030946943</v>
+        <v>0.09779553660770546</v>
       </c>
       <c r="D12">
-        <v>0.1061102370352529</v>
+        <v>0.1215283726899372</v>
       </c>
       <c r="E12">
-        <v>0.0534157121196781</v>
+        <v>0.1293452998323072</v>
       </c>
       <c r="F12">
-        <v>0.9645192522652692</v>
+        <v>1.977132440150925</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5375160159535639</v>
+        <v>1.286460482489957</v>
       </c>
       <c r="J12">
-        <v>0.06299022456993342</v>
+        <v>0.1778263792147285</v>
       </c>
       <c r="K12">
-        <v>1.37561495039651</v>
+        <v>0.4969016026969939</v>
       </c>
       <c r="L12">
-        <v>0.2199245563538739</v>
+        <v>0.2965952782313792</v>
       </c>
       <c r="M12">
-        <v>0.3174922513356435</v>
+        <v>0.2184968436715025</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.428737351595288</v>
+        <v>5.249505954808626</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.503401895705366</v>
+        <v>0.7230306695227569</v>
       </c>
       <c r="C13">
-        <v>0.1348161301786206</v>
+        <v>0.09765645898322362</v>
       </c>
       <c r="D13">
-        <v>0.105634488732278</v>
+        <v>0.1214184173472432</v>
       </c>
       <c r="E13">
-        <v>0.05336517080219672</v>
+        <v>0.1293592528260596</v>
       </c>
       <c r="F13">
-        <v>0.963492797040999</v>
+        <v>1.977473992442278</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5377804290889259</v>
+        <v>1.28691460536507</v>
       </c>
       <c r="J13">
-        <v>0.06308936245619901</v>
+        <v>0.1778832066246148</v>
       </c>
       <c r="K13">
-        <v>1.36825106769507</v>
+        <v>0.4947263836164382</v>
       </c>
       <c r="L13">
-        <v>0.2190535257454371</v>
+        <v>0.2964235248020941</v>
       </c>
       <c r="M13">
-        <v>0.3158410991236451</v>
+        <v>0.2180611995747981</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.427579335786731</v>
+        <v>5.250871174795321</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.476885343291713</v>
+        <v>0.7155087061836696</v>
       </c>
       <c r="C14">
-        <v>0.1334678213558789</v>
+        <v>0.09720250564932087</v>
       </c>
       <c r="D14">
-        <v>0.1040846914765012</v>
+        <v>0.121060707990523</v>
       </c>
       <c r="E14">
-        <v>0.05320173593644739</v>
+        <v>0.12940562392291</v>
       </c>
       <c r="F14">
-        <v>0.9601929628711616</v>
+        <v>1.978608566081213</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5386717167013089</v>
+        <v>1.288408501318642</v>
       </c>
       <c r="J14">
-        <v>0.06341421478386255</v>
+        <v>0.178069510477342</v>
       </c>
       <c r="K14">
-        <v>1.344247589324368</v>
+        <v>0.4876329512113955</v>
       </c>
       <c r="L14">
-        <v>0.2162179712239407</v>
+        <v>0.2958657922861931</v>
       </c>
       <c r="M14">
-        <v>0.3104608754424945</v>
+        <v>0.2166419403486373</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.423936785509056</v>
+        <v>5.255379849628667</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.460655128476731</v>
+        <v>0.7109037093402719</v>
       </c>
       <c r="C15">
-        <v>0.1326422688227495</v>
+        <v>0.09692414611262734</v>
       </c>
       <c r="D15">
-        <v>0.1031367034957071</v>
+        <v>0.1208422771070303</v>
       </c>
       <c r="E15">
-        <v>0.05310269090911035</v>
+        <v>0.1294346944364939</v>
       </c>
       <c r="F15">
-        <v>0.9582080519759941</v>
+        <v>1.97931943328873</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5392397679402094</v>
+        <v>1.289333471760195</v>
       </c>
       <c r="J15">
-        <v>0.0636143780096674</v>
+        <v>0.1781843782014425</v>
       </c>
       <c r="K15">
-        <v>1.329553561913968</v>
+        <v>0.4832883597727005</v>
       </c>
       <c r="L15">
-        <v>0.2144849635788972</v>
+        <v>0.2955260054955744</v>
       </c>
       <c r="M15">
-        <v>0.3071687666176146</v>
+        <v>0.2157737360817791</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.421807765553581</v>
+        <v>5.258184885502288</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.367819045127106</v>
+        <v>0.6845519975013588</v>
       </c>
       <c r="C16">
-        <v>0.1279157708307537</v>
+        <v>0.09532439910282164</v>
       </c>
       <c r="D16">
-        <v>0.09772359533114638</v>
+        <v>0.1196009492593078</v>
       </c>
       <c r="E16">
-        <v>0.05255117783529073</v>
+        <v>0.1296115232897534</v>
       </c>
       <c r="F16">
-        <v>0.9473784640213054</v>
+        <v>1.983637112304045</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5428276202195299</v>
+        <v>1.294786150083812</v>
       </c>
       <c r="J16">
-        <v>0.06477941588278036</v>
+        <v>0.1788541631946678</v>
       </c>
       <c r="K16">
-        <v>1.245473625492906</v>
+        <v>0.4583969175754987</v>
       </c>
       <c r="L16">
-        <v>0.2046111602551974</v>
+        <v>0.2936071106552447</v>
       </c>
       <c r="M16">
-        <v>0.2883533364606379</v>
+        <v>0.2108158878356363</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.411139837658226</v>
+        <v>5.274924014615749</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.31101033374884</v>
+        <v>0.6684202568856392</v>
       </c>
       <c r="C17">
-        <v>0.1250195394751898</v>
+        <v>0.09433893726043152</v>
       </c>
       <c r="D17">
-        <v>0.09441951218615685</v>
+        <v>0.1188487722461957</v>
       </c>
       <c r="E17">
-        <v>0.05222694356077007</v>
+        <v>0.1297291546489827</v>
       </c>
       <c r="F17">
-        <v>0.9412088126545015</v>
+        <v>1.986503754494485</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5453186888500134</v>
+        <v>1.29826693183481</v>
       </c>
       <c r="J17">
-        <v>0.06551003707059166</v>
+        <v>0.1792753491491661</v>
       </c>
       <c r="K17">
-        <v>1.193995598021417</v>
+        <v>0.4431323405392789</v>
       </c>
       <c r="L17">
-        <v>0.1986033161699723</v>
+        <v>0.2924552538720278</v>
       </c>
       <c r="M17">
-        <v>0.2768531233419509</v>
+        <v>0.2077901294716682</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.405927935566893</v>
+        <v>5.285786271864879</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.278383888188557</v>
+        <v>0.6591544952548247</v>
       </c>
       <c r="C18">
-        <v>0.1233546887700214</v>
+        <v>0.09377063787377438</v>
       </c>
       <c r="D18">
-        <v>0.09252496960418455</v>
+        <v>0.1184195901467717</v>
       </c>
       <c r="E18">
-        <v>0.05204554089041658</v>
+        <v>0.1298001835782578</v>
       </c>
       <c r="F18">
-        <v>0.9378295349405548</v>
+        <v>1.988232711934394</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5468554678436774</v>
+        <v>1.300318895761535</v>
       </c>
       <c r="J18">
-        <v>0.06593606349519465</v>
+        <v>0.1795213917706286</v>
       </c>
       <c r="K18">
-        <v>1.164420613660525</v>
+        <v>0.434354773542907</v>
       </c>
       <c r="L18">
-        <v>0.1951652374329669</v>
+        <v>0.2918020753818098</v>
       </c>
       <c r="M18">
-        <v>0.2702531549991392</v>
+        <v>0.2060556197747587</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.403406317618504</v>
+        <v>5.292252128308206</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.267345061748273</v>
+        <v>0.6560194856737382</v>
       </c>
       <c r="C19">
-        <v>0.1227911463632267</v>
+        <v>0.09357796664546925</v>
       </c>
       <c r="D19">
-        <v>0.09188449631921003</v>
+        <v>0.1182748708218</v>
       </c>
       <c r="E19">
-        <v>0.05198498627727943</v>
+        <v>0.129824812295487</v>
       </c>
       <c r="F19">
-        <v>0.9367140064467847</v>
+        <v>1.988831877933521</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5473934123410551</v>
+        <v>1.301022230131078</v>
       </c>
       <c r="J19">
-        <v>0.06608129858975698</v>
+        <v>0.1796053485158193</v>
       </c>
       <c r="K19">
-        <v>1.154412491021077</v>
+        <v>0.4313832381508291</v>
       </c>
       <c r="L19">
-        <v>0.1940041007973363</v>
+        <v>0.2915825274861277</v>
       </c>
       <c r="M19">
-        <v>0.26802094759665</v>
+        <v>0.2054693499576032</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.402633059883527</v>
+        <v>5.294478839225633</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.317052613340991</v>
+        <v>0.6701361897424363</v>
       </c>
       <c r="C20">
-        <v>0.1253277411007474</v>
+        <v>0.09444399550720561</v>
       </c>
       <c r="D20">
-        <v>0.09477062346602594</v>
+        <v>0.1189284861121536</v>
       </c>
       <c r="E20">
-        <v>0.05226093015056144</v>
+        <v>0.1297162839143553</v>
       </c>
       <c r="F20">
-        <v>0.9418479491497962</v>
+        <v>1.986190302820063</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5450426908221822</v>
+        <v>1.297891231735399</v>
       </c>
       <c r="J20">
-        <v>0.06543166050919158</v>
+        <v>0.1792301212824192</v>
       </c>
       <c r="K20">
-        <v>1.199471938628335</v>
+        <v>0.4447570558964458</v>
       </c>
       <c r="L20">
-        <v>0.1992410377238443</v>
+        <v>0.2925769051777465</v>
       </c>
       <c r="M20">
-        <v>0.2780758034509532</v>
+        <v>0.2081116247030295</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.406433173101959</v>
+        <v>5.284607388649761</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.484671384403867</v>
+        <v>0.7177175854833706</v>
       </c>
       <c r="C21">
-        <v>0.1338637830829441</v>
+        <v>0.09733590531205039</v>
       </c>
       <c r="D21">
-        <v>0.1045396305066362</v>
+        <v>0.12116563503713</v>
       </c>
       <c r="E21">
-        <v>0.05324951852465709</v>
+        <v>0.1293918646694099</v>
       </c>
       <c r="F21">
-        <v>0.9611546039078505</v>
+        <v>1.978271999448182</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5384053004614415</v>
+        <v>1.28796764151717</v>
       </c>
       <c r="J21">
-        <v>0.06331855117943341</v>
+        <v>0.17801463198718</v>
       </c>
       <c r="K21">
-        <v>1.351296137223358</v>
+        <v>0.4897163942836187</v>
       </c>
       <c r="L21">
-        <v>0.217050035647361</v>
+        <v>0.2960292284743105</v>
       </c>
       <c r="M21">
-        <v>0.3120404563929355</v>
+        <v>0.2170585753449572</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.424985323260302</v>
+        <v>5.25404651070528</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.594742818473094</v>
+        <v>0.7489238328770398</v>
       </c>
       <c r="C22">
-        <v>0.1394565058174067</v>
+        <v>0.09921252783986745</v>
       </c>
       <c r="D22">
-        <v>0.1109820774704389</v>
+        <v>0.1226580668549673</v>
       </c>
       <c r="E22">
-        <v>0.05394296447778935</v>
+        <v>0.1292097044650262</v>
       </c>
       <c r="F22">
-        <v>0.9753856154463563</v>
+        <v>1.973809122808035</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5350499528066379</v>
+        <v>1.281925890437321</v>
       </c>
       <c r="J22">
-        <v>0.06199025995487162</v>
+        <v>0.1772538747357553</v>
       </c>
       <c r="K22">
-        <v>1.450905413810062</v>
+        <v>0.5191156730865032</v>
       </c>
       <c r="L22">
-        <v>0.2288597544924897</v>
+        <v>0.2983679853815886</v>
       </c>
       <c r="M22">
-        <v>0.3343894103528058</v>
+        <v>0.2229567667280179</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.441645097861311</v>
+        <v>5.236013438279343</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.535943152339513</v>
+        <v>0.7322587263010405</v>
       </c>
       <c r="C23">
-        <v>0.1364700285732283</v>
+        <v>0.09821217356545731</v>
       </c>
       <c r="D23">
-        <v>0.1075380541634416</v>
+        <v>0.1218587723580953</v>
       </c>
       <c r="E23">
-        <v>0.05356842501497994</v>
+        <v>0.1293042011182219</v>
       </c>
       <c r="F23">
-        <v>0.9676373847122619</v>
+        <v>1.976125948625906</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5367480118666563</v>
+        <v>1.285109897716282</v>
       </c>
       <c r="J23">
-        <v>0.06269430897985995</v>
+        <v>0.1776568320400616</v>
       </c>
       <c r="K23">
-        <v>1.397702833832795</v>
+        <v>0.5034234749898019</v>
       </c>
       <c r="L23">
-        <v>0.2225403334155374</v>
+        <v>0.297112235156419</v>
       </c>
       <c r="M23">
-        <v>0.3224464878428108</v>
+        <v>0.2198041893446074</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.432323673662069</v>
+        <v>5.245460622178911</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.314320794949737</v>
+        <v>0.6693603896854938</v>
       </c>
       <c r="C24">
-        <v>0.1251884024810721</v>
+        <v>0.09439650410530476</v>
       </c>
       <c r="D24">
-        <v>0.09461187048334097</v>
+        <v>0.1188924373325264</v>
       </c>
       <c r="E24">
-        <v>0.05224554924931368</v>
+        <v>0.1297220921779445</v>
       </c>
       <c r="F24">
-        <v>0.9415584742156256</v>
+        <v>1.986331762349835</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.545167144244143</v>
+        <v>1.298060927454866</v>
       </c>
       <c r="J24">
-        <v>0.06546707593089351</v>
+        <v>0.1792505566603602</v>
       </c>
       <c r="K24">
-        <v>1.196996022327482</v>
+        <v>0.4440225275169212</v>
       </c>
       <c r="L24">
-        <v>0.1989526744119772</v>
+        <v>0.2925218784588637</v>
       </c>
       <c r="M24">
-        <v>0.2775229936868442</v>
+        <v>0.207966261001495</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.406203279594934</v>
+        <v>5.285139673319804</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.077069652197423</v>
+        <v>0.6020059146137555</v>
       </c>
       <c r="C25">
-        <v>0.1130544336923549</v>
+        <v>0.09022388613966115</v>
       </c>
       <c r="D25">
-        <v>0.08089080033371232</v>
+        <v>0.1158248966158268</v>
       </c>
       <c r="E25">
-        <v>0.0510120931319662</v>
+        <v>0.1303018029128573</v>
       </c>
       <c r="F25">
-        <v>0.9198487281140402</v>
+        <v>2.000405168270852</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5581950874444637</v>
+        <v>1.313939231779145</v>
       </c>
       <c r="J25">
-        <v>0.06867881751955895</v>
+        <v>0.1811145142223971</v>
       </c>
       <c r="K25">
-        <v>0.9817521519240699</v>
+        <v>0.3800357570525534</v>
       </c>
       <c r="L25">
-        <v>0.1741699811626063</v>
+        <v>0.2879278779314873</v>
       </c>
       <c r="M25">
-        <v>0.2296152670089526</v>
+        <v>0.1954204662692725</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.396081292286112</v>
+        <v>5.336282699052845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_197/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5528496190351575</v>
+        <v>0.903446434162646</v>
       </c>
       <c r="C2">
-        <v>0.08710290462138914</v>
+        <v>0.1041235983658311</v>
       </c>
       <c r="D2">
-        <v>0.113681439038146</v>
+        <v>0.07094947236514315</v>
       </c>
       <c r="E2">
-        <v>0.1308403623878931</v>
+        <v>0.05025992516510769</v>
       </c>
       <c r="F2">
-        <v>2.013411602932891</v>
+        <v>0.908863305626177</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.327276427429808</v>
+        <v>0.5709039642290783</v>
       </c>
       <c r="J2">
-        <v>0.1826122813970965</v>
+        <v>0.0712282458707989</v>
       </c>
       <c r="K2">
-        <v>0.33300711553062</v>
+        <v>0.8239073858309212</v>
       </c>
       <c r="L2">
-        <v>0.2848554801963203</v>
+        <v>0.156412927402549</v>
       </c>
       <c r="M2">
-        <v>0.1863783687266398</v>
+        <v>0.1947044249467993</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.381132015499006</v>
+        <v>2.402698388287433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5198161574487301</v>
+        <v>0.7862223180802914</v>
       </c>
       <c r="C3">
-        <v>0.08495753218657143</v>
+        <v>0.09806115268641236</v>
       </c>
       <c r="D3">
-        <v>0.11230146106967</v>
+        <v>0.0642993946641397</v>
       </c>
       <c r="E3">
-        <v>0.1312754649252188</v>
+        <v>0.04984269668580055</v>
       </c>
       <c r="F3">
-        <v>2.023880063854193</v>
+        <v>0.9042959543819435</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.337344355234844</v>
+        <v>0.5813326919044108</v>
       </c>
       <c r="J3">
-        <v>0.1837058974389549</v>
+        <v>0.07306872239926765</v>
       </c>
       <c r="K3">
-        <v>0.3011939872233</v>
+        <v>0.7171344078912512</v>
       </c>
       <c r="L3">
-        <v>0.2829682393676904</v>
+        <v>0.144649106662925</v>
       </c>
       <c r="M3">
-        <v>0.1803741292745684</v>
+        <v>0.1712219845562757</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.416023019337288</v>
+        <v>2.415288594462538</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4996749214235479</v>
+        <v>0.7143977415592531</v>
       </c>
       <c r="C4">
-        <v>0.08362541347447916</v>
+        <v>0.09433031090801336</v>
       </c>
       <c r="D4">
-        <v>0.1114903008318748</v>
+        <v>0.06025519701723425</v>
       </c>
       <c r="E4">
-        <v>0.1315773510262837</v>
+        <v>0.04963067391505938</v>
       </c>
       <c r="F4">
-        <v>2.031125080598912</v>
+        <v>0.9028365091900952</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.344034547124426</v>
+        <v>0.5885918775367678</v>
       </c>
       <c r="J4">
-        <v>0.1844162566822192</v>
+        <v>0.07425359589611613</v>
       </c>
       <c r="K4">
-        <v>0.2816919988135567</v>
+        <v>0.6516145450006405</v>
       </c>
       <c r="L4">
-        <v>0.2819061833775365</v>
+        <v>0.1375485813274153</v>
       </c>
       <c r="M4">
-        <v>0.1767492342256602</v>
+        <v>0.1568759726391669</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.439667239191238</v>
+        <v>2.426809908332302</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.491503434854252</v>
+        <v>0.6851579374695689</v>
       </c>
       <c r="C5">
-        <v>0.08307885008526483</v>
+        <v>0.09280735946125418</v>
       </c>
       <c r="D5">
-        <v>0.1111688939072266</v>
+        <v>0.05861641438406195</v>
       </c>
       <c r="E5">
-        <v>0.1317091284700993</v>
+        <v>0.04955517099690354</v>
       </c>
       <c r="F5">
-        <v>2.034283263114041</v>
+        <v>0.9025694902963437</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.34688882031854</v>
+        <v>0.5917596335467579</v>
       </c>
       <c r="J5">
-        <v>0.1847155255152977</v>
+        <v>0.0747501092747509</v>
       </c>
       <c r="K5">
-        <v>0.2737532130162634</v>
+        <v>0.6249166632819652</v>
       </c>
       <c r="L5">
-        <v>0.2814978089927109</v>
+        <v>0.1346843964513056</v>
       </c>
       <c r="M5">
-        <v>0.1752877284184038</v>
+        <v>0.151046037510401</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.449861444732889</v>
+        <v>2.432428917110528</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4901487735340027</v>
+        <v>0.6803042116069662</v>
       </c>
       <c r="C6">
-        <v>0.08298786992236984</v>
+        <v>0.09255430408427401</v>
       </c>
       <c r="D6">
-        <v>0.1111160786882053</v>
+        <v>0.05834483983591809</v>
       </c>
       <c r="E6">
-        <v>0.1317315395535665</v>
+        <v>0.04954328616898884</v>
       </c>
       <c r="F6">
-        <v>2.034820112912179</v>
+        <v>0.902544647712908</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.347370502356871</v>
+        <v>0.5922981346385221</v>
       </c>
       <c r="J6">
-        <v>0.1847658107509602</v>
+        <v>0.0748333771576748</v>
       </c>
       <c r="K6">
-        <v>0.2724355088290622</v>
+        <v>0.6204833996457211</v>
       </c>
       <c r="L6">
-        <v>0.281431476760325</v>
+        <v>0.1342105310342134</v>
       </c>
       <c r="M6">
-        <v>0.1750459971017975</v>
+        <v>0.1500789021118365</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.451587961510526</v>
+        <v>2.43341692425463</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4995645703208993</v>
+        <v>0.7140032960081157</v>
       </c>
       <c r="C7">
-        <v>0.08361805734297434</v>
+        <v>0.09430978299480586</v>
       </c>
       <c r="D7">
-        <v>0.1114859291125043</v>
+        <v>0.0602330590191329</v>
       </c>
       <c r="E7">
-        <v>0.1315790927379972</v>
+        <v>0.04962961179541381</v>
       </c>
       <c r="F7">
-        <v>2.031166839424877</v>
+        <v>0.9028315946710421</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.344072522572535</v>
+        <v>0.5886337577028264</v>
       </c>
       <c r="J7">
-        <v>0.184420253058744</v>
+        <v>0.07426023685735217</v>
       </c>
       <c r="K7">
-        <v>0.2815848987152805</v>
+        <v>0.6512544900216568</v>
       </c>
       <c r="L7">
-        <v>0.2819005768784422</v>
+        <v>0.1375098370336403</v>
       </c>
       <c r="M7">
-        <v>0.1767294602136147</v>
+        <v>0.1567972851440409</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.439802457799004</v>
+        <v>2.426881984804282</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.541430711753577</v>
+        <v>0.8629906303842461</v>
       </c>
       <c r="C8">
-        <v>0.0863662741764486</v>
+        <v>0.1020347312859187</v>
       </c>
       <c r="D8">
-        <v>0.1131981527465555</v>
+        <v>0.0686481001382262</v>
       </c>
       <c r="E8">
-        <v>0.1309831909213131</v>
+        <v>0.05010677319826229</v>
       </c>
       <c r="F8">
-        <v>2.016851639868598</v>
+        <v>0.9070028904347112</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.33064238977677</v>
+        <v>0.5743186731976309</v>
       </c>
       <c r="J8">
-        <v>0.1829813016901563</v>
+        <v>0.07185139496086546</v>
       </c>
       <c r="K8">
-        <v>0.322031743314767</v>
+        <v>0.7870790348458456</v>
       </c>
       <c r="L8">
-        <v>0.2841847456799158</v>
+        <v>0.1523304254866957</v>
       </c>
       <c r="M8">
-        <v>0.184295379333328</v>
+        <v>0.1865914299936513</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.392701765992342</v>
+        <v>2.40623466886322</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.62462757568548</v>
+        <v>1.156791789194784</v>
       </c>
       <c r="C9">
-        <v>0.09163701885213982</v>
+        <v>0.1171395635870098</v>
       </c>
       <c r="D9">
-        <v>0.1168404206387095</v>
+        <v>0.08548581005012323</v>
       </c>
       <c r="E9">
-        <v>0.1300892273501848</v>
+        <v>0.05140268178761254</v>
       </c>
       <c r="F9">
-        <v>1.995254335404766</v>
+        <v>0.9263515604600059</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.308335210573766</v>
+        <v>0.5533046590577548</v>
       </c>
       <c r="J9">
-        <v>0.1804672160897161</v>
+        <v>0.06756791261833861</v>
       </c>
       <c r="K9">
-        <v>0.4015774117172839</v>
+        <v>1.054130429093931</v>
       </c>
       <c r="L9">
-        <v>0.289427388168022</v>
+        <v>0.182436940915629</v>
       </c>
       <c r="M9">
-        <v>0.1996164312810436</v>
+        <v>0.2456896532299098</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.31793894769811</v>
+        <v>2.397211876635936</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.686394457809314</v>
+        <v>1.374308177376321</v>
       </c>
       <c r="C10">
-        <v>0.09543664501090632</v>
+        <v>0.12824640131862</v>
       </c>
       <c r="D10">
-        <v>0.119687244047789</v>
+        <v>0.09810142888264295</v>
       </c>
       <c r="E10">
-        <v>0.1295985569414153</v>
+        <v>0.05258887143554958</v>
       </c>
       <c r="F10">
-        <v>1.983320862852835</v>
+        <v>0.9481057571463083</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.294395729772067</v>
+        <v>0.5425576487164143</v>
       </c>
       <c r="J10">
-        <v>0.1788066158602826</v>
+        <v>0.06469683567301754</v>
       </c>
       <c r="K10">
-        <v>0.4601389985058972</v>
+        <v>1.251352479159465</v>
       </c>
       <c r="L10">
-        <v>0.2937398086165643</v>
+        <v>0.2052991140207894</v>
       </c>
       <c r="M10">
-        <v>0.2111619338697182</v>
+        <v>0.2896676438491994</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.273714109866233</v>
+        <v>2.411800041901131</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7146279456864875</v>
+        <v>1.473780929925596</v>
       </c>
       <c r="C11">
-        <v>0.09714929256796268</v>
+        <v>0.1333099316221791</v>
       </c>
       <c r="D11">
-        <v>0.1210188971619885</v>
+        <v>0.1039033301158554</v>
       </c>
       <c r="E11">
-        <v>0.1294111435265251</v>
+        <v>0.05318273260349748</v>
       </c>
       <c r="F11">
-        <v>1.978743561948257</v>
+        <v>0.9598112419885254</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.288584795770532</v>
+        <v>0.5387790392702385</v>
       </c>
       <c r="J11">
-        <v>0.1780914321352078</v>
+        <v>0.06345242213200031</v>
       </c>
       <c r="K11">
-        <v>0.4868021117776209</v>
+        <v>1.341437127551188</v>
       </c>
       <c r="L11">
-        <v>0.295800705422181</v>
+        <v>0.2158863400800755</v>
       </c>
       <c r="M11">
-        <v>0.2164758458219751</v>
+        <v>0.3098311217575471</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.255913687310169</v>
+        <v>2.423523620732936</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7253381207084431</v>
+        <v>1.511537636795623</v>
       </c>
       <c r="C12">
-        <v>0.09779553660770546</v>
+        <v>0.1352297030941969</v>
       </c>
       <c r="D12">
-        <v>0.1215283726899372</v>
+        <v>0.1061102370352245</v>
       </c>
       <c r="E12">
-        <v>0.1293452998323072</v>
+        <v>0.05341571211965501</v>
       </c>
       <c r="F12">
-        <v>1.977132440150925</v>
+        <v>0.964519252265255</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.286460482489957</v>
+        <v>0.5375160159535355</v>
       </c>
       <c r="J12">
-        <v>0.1778263792147285</v>
+        <v>0.06299022456981263</v>
       </c>
       <c r="K12">
-        <v>0.4969016026969939</v>
+        <v>1.375614950396624</v>
       </c>
       <c r="L12">
-        <v>0.2965952782313792</v>
+        <v>0.2199245563539023</v>
       </c>
       <c r="M12">
-        <v>0.2184968436715025</v>
+        <v>0.3174922513356435</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.249505954808626</v>
+        <v>2.428737351595231</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7230306695227569</v>
+        <v>1.503401895705508</v>
       </c>
       <c r="C13">
-        <v>0.09765645898322362</v>
+        <v>0.134816130178379</v>
       </c>
       <c r="D13">
-        <v>0.1214184173472432</v>
+        <v>0.1056344887322354</v>
       </c>
       <c r="E13">
-        <v>0.1293592528260596</v>
+        <v>0.05336517080219494</v>
       </c>
       <c r="F13">
-        <v>1.977473992442278</v>
+        <v>0.9634927970410061</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.28691460536507</v>
+        <v>0.5377804290889472</v>
       </c>
       <c r="J13">
-        <v>0.1778832066246148</v>
+        <v>0.06308936245621499</v>
       </c>
       <c r="K13">
-        <v>0.4947263836164382</v>
+        <v>1.368251067695212</v>
       </c>
       <c r="L13">
-        <v>0.2964235248020941</v>
+        <v>0.2190535257453377</v>
       </c>
       <c r="M13">
-        <v>0.2180611995747981</v>
+        <v>0.3158410991236664</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.250871174795321</v>
+        <v>2.427579335786788</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7155087061836696</v>
+        <v>1.476885343291798</v>
       </c>
       <c r="C14">
-        <v>0.09720250564932087</v>
+        <v>0.1334678213561062</v>
       </c>
       <c r="D14">
-        <v>0.121060707990523</v>
+        <v>0.1040846914765581</v>
       </c>
       <c r="E14">
-        <v>0.12940562392291</v>
+        <v>0.05320173593645983</v>
       </c>
       <c r="F14">
-        <v>1.978608566081213</v>
+        <v>0.9601929628711545</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.288408501318642</v>
+        <v>0.5386717167013018</v>
       </c>
       <c r="J14">
-        <v>0.178069510477342</v>
+        <v>0.06341421478391052</v>
       </c>
       <c r="K14">
-        <v>0.4876329512113955</v>
+        <v>1.344247589324283</v>
       </c>
       <c r="L14">
-        <v>0.2958657922861931</v>
+        <v>0.2162179712238839</v>
       </c>
       <c r="M14">
-        <v>0.2166419403486373</v>
+        <v>0.3104608754424945</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.255379849628667</v>
+        <v>2.423936785509028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7109037093402719</v>
+        <v>1.460655128476731</v>
       </c>
       <c r="C15">
-        <v>0.09692414611262734</v>
+        <v>0.1326422688227638</v>
       </c>
       <c r="D15">
-        <v>0.1208422771070303</v>
+        <v>0.1031367034958777</v>
       </c>
       <c r="E15">
-        <v>0.1294346944364939</v>
+        <v>0.05310269090912456</v>
       </c>
       <c r="F15">
-        <v>1.97931943328873</v>
+        <v>0.9582080519759941</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.289333471760195</v>
+        <v>0.5392397679401952</v>
       </c>
       <c r="J15">
-        <v>0.1781843782014425</v>
+        <v>0.06361437800972425</v>
       </c>
       <c r="K15">
-        <v>0.4832883597727005</v>
+        <v>1.329553561913968</v>
       </c>
       <c r="L15">
-        <v>0.2955260054955744</v>
+        <v>0.214484963578883</v>
       </c>
       <c r="M15">
-        <v>0.2157737360817791</v>
+        <v>0.3071687666176146</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.258184885502288</v>
+        <v>2.421807765553581</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6845519975013588</v>
+        <v>1.367819045126993</v>
       </c>
       <c r="C16">
-        <v>0.09532439910282164</v>
+        <v>0.1279157708305263</v>
       </c>
       <c r="D16">
-        <v>0.1196009492593078</v>
+        <v>0.09772359533091191</v>
       </c>
       <c r="E16">
-        <v>0.1296115232897534</v>
+        <v>0.05255117783529251</v>
       </c>
       <c r="F16">
-        <v>1.983637112304045</v>
+        <v>0.947378464021277</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.294786150083812</v>
+        <v>0.5428276202195406</v>
       </c>
       <c r="J16">
-        <v>0.1788541631946678</v>
+        <v>0.0647794158827244</v>
       </c>
       <c r="K16">
-        <v>0.4583969175754987</v>
+        <v>1.245473625492764</v>
       </c>
       <c r="L16">
-        <v>0.2936071106552447</v>
+        <v>0.204611160255169</v>
       </c>
       <c r="M16">
-        <v>0.2108158878356363</v>
+        <v>0.2883533364606308</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.274924014615749</v>
+        <v>2.411139837658169</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6684202568856392</v>
+        <v>1.311010333748925</v>
       </c>
       <c r="C17">
-        <v>0.09433893726043152</v>
+        <v>0.1250195394751756</v>
       </c>
       <c r="D17">
-        <v>0.1188487722461957</v>
+        <v>0.09441951218611422</v>
       </c>
       <c r="E17">
-        <v>0.1297291546489827</v>
+        <v>0.05222694356076474</v>
       </c>
       <c r="F17">
-        <v>1.986503754494485</v>
+        <v>0.941208812654537</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.29826693183481</v>
+        <v>0.545318688850017</v>
       </c>
       <c r="J17">
-        <v>0.1792753491491661</v>
+        <v>0.06551003707044512</v>
       </c>
       <c r="K17">
-        <v>0.4431323405392789</v>
+        <v>1.193995598021274</v>
       </c>
       <c r="L17">
-        <v>0.2924552538720278</v>
+        <v>0.198603316169951</v>
       </c>
       <c r="M17">
-        <v>0.2077901294716682</v>
+        <v>0.2768531233419509</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.285786271864879</v>
+        <v>2.405927935566865</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6591544952548247</v>
+        <v>1.278383888188586</v>
       </c>
       <c r="C18">
-        <v>0.09377063787377438</v>
+        <v>0.123354688769453</v>
       </c>
       <c r="D18">
-        <v>0.1184195901467717</v>
+        <v>0.0925249696041206</v>
       </c>
       <c r="E18">
-        <v>0.1298001835782578</v>
+        <v>0.0520455408903846</v>
       </c>
       <c r="F18">
-        <v>1.988232711934394</v>
+        <v>0.9378295349405263</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.300318895761535</v>
+        <v>0.5468554678436668</v>
       </c>
       <c r="J18">
-        <v>0.1795213917706286</v>
+        <v>0.06593606349516712</v>
       </c>
       <c r="K18">
-        <v>0.434354773542907</v>
+        <v>1.164420613660525</v>
       </c>
       <c r="L18">
-        <v>0.2918020753818098</v>
+        <v>0.19516523743291</v>
       </c>
       <c r="M18">
-        <v>0.2060556197747587</v>
+        <v>0.2702531549991463</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.292252128308206</v>
+        <v>2.403406317618419</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6560194856737382</v>
+        <v>1.267345061748301</v>
       </c>
       <c r="C19">
-        <v>0.09357796664546925</v>
+        <v>0.1227911463631983</v>
       </c>
       <c r="D19">
-        <v>0.1182748708218</v>
+        <v>0.09188449631908213</v>
       </c>
       <c r="E19">
-        <v>0.129824812295487</v>
+        <v>0.05198498627729187</v>
       </c>
       <c r="F19">
-        <v>1.988831877933521</v>
+        <v>0.9367140064467847</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.301022230131078</v>
+        <v>0.5473934123410658</v>
       </c>
       <c r="J19">
-        <v>0.1796053485158193</v>
+        <v>0.06608129858980405</v>
       </c>
       <c r="K19">
-        <v>0.4313832381508291</v>
+        <v>1.15441249102102</v>
       </c>
       <c r="L19">
-        <v>0.2915825274861277</v>
+        <v>0.1940041007973221</v>
       </c>
       <c r="M19">
-        <v>0.2054693499576032</v>
+        <v>0.2680209475966358</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.294478839225633</v>
+        <v>2.402633059883414</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6701361897424363</v>
+        <v>1.317052613341048</v>
       </c>
       <c r="C20">
-        <v>0.09444399550720561</v>
+        <v>0.1253277411009748</v>
       </c>
       <c r="D20">
-        <v>0.1189284861121536</v>
+        <v>0.09477062346577014</v>
       </c>
       <c r="E20">
-        <v>0.1297162839143553</v>
+        <v>0.05226093015054722</v>
       </c>
       <c r="F20">
-        <v>1.986190302820063</v>
+        <v>0.9418479491497962</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.297891231735399</v>
+        <v>0.5450426908221786</v>
       </c>
       <c r="J20">
-        <v>0.1792301212824192</v>
+        <v>0.06543166050920668</v>
       </c>
       <c r="K20">
-        <v>0.4447570558964458</v>
+        <v>1.199471938628335</v>
       </c>
       <c r="L20">
-        <v>0.2925769051777465</v>
+        <v>0.1992410377238514</v>
       </c>
       <c r="M20">
-        <v>0.2081116247030295</v>
+        <v>0.2780758034509461</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.284607388649761</v>
+        <v>2.406433173101959</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7177175854833706</v>
+        <v>1.484671384403896</v>
       </c>
       <c r="C21">
-        <v>0.09733590531205039</v>
+        <v>0.1338637830828304</v>
       </c>
       <c r="D21">
-        <v>0.12116563503713</v>
+        <v>0.1045396305069914</v>
       </c>
       <c r="E21">
-        <v>0.1293918646694099</v>
+        <v>0.05324951852462512</v>
       </c>
       <c r="F21">
-        <v>1.978271999448182</v>
+        <v>0.9611546039078434</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.28796764151717</v>
+        <v>0.5384053004614486</v>
       </c>
       <c r="J21">
-        <v>0.17801463198718</v>
+        <v>0.06331855117949026</v>
       </c>
       <c r="K21">
-        <v>0.4897163942836187</v>
+        <v>1.351296137223329</v>
       </c>
       <c r="L21">
-        <v>0.2960292284743105</v>
+        <v>0.2170500356474889</v>
       </c>
       <c r="M21">
-        <v>0.2170585753449572</v>
+        <v>0.3120404563929426</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.25404651070528</v>
+        <v>2.424985323260273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7489238328770398</v>
+        <v>1.594742818473065</v>
       </c>
       <c r="C22">
-        <v>0.09921252783986745</v>
+        <v>0.1394565058172645</v>
       </c>
       <c r="D22">
-        <v>0.1226580668549673</v>
+        <v>0.1109820774701973</v>
       </c>
       <c r="E22">
-        <v>0.1292097044650262</v>
+        <v>0.05394296447776803</v>
       </c>
       <c r="F22">
-        <v>1.973809122808035</v>
+        <v>0.9753856154463421</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.281925890437321</v>
+        <v>0.5350499528066095</v>
       </c>
       <c r="J22">
-        <v>0.1772538747357553</v>
+        <v>0.06199025995485208</v>
       </c>
       <c r="K22">
-        <v>0.5191156730865032</v>
+        <v>1.450905413810005</v>
       </c>
       <c r="L22">
-        <v>0.2983679853815886</v>
+        <v>0.2288597544925324</v>
       </c>
       <c r="M22">
-        <v>0.2229567667280179</v>
+        <v>0.3343894103528129</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.236013438279343</v>
+        <v>2.441645097861141</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7322587263010405</v>
+        <v>1.53594315233974</v>
       </c>
       <c r="C23">
-        <v>0.09821217356545731</v>
+        <v>0.1364700285734557</v>
       </c>
       <c r="D23">
-        <v>0.1218587723580953</v>
+        <v>0.1075380541634559</v>
       </c>
       <c r="E23">
-        <v>0.1293042011182219</v>
+        <v>0.05356842501496217</v>
       </c>
       <c r="F23">
-        <v>1.976125948625906</v>
+        <v>0.9676373847122761</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.285109897716282</v>
+        <v>0.5367480118666563</v>
       </c>
       <c r="J23">
-        <v>0.1776568320400616</v>
+        <v>0.06269430897981199</v>
       </c>
       <c r="K23">
-        <v>0.5034234749898019</v>
+        <v>1.397702833832881</v>
       </c>
       <c r="L23">
-        <v>0.297112235156419</v>
+        <v>0.2225403334155516</v>
       </c>
       <c r="M23">
-        <v>0.2198041893446074</v>
+        <v>0.3224464878428037</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.245460622178911</v>
+        <v>2.432323673662069</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6693603896854938</v>
+        <v>1.314320794949879</v>
       </c>
       <c r="C24">
-        <v>0.09439650410530476</v>
+        <v>0.1251884024809868</v>
       </c>
       <c r="D24">
-        <v>0.1188924373325264</v>
+        <v>0.09461187048327702</v>
       </c>
       <c r="E24">
-        <v>0.1297220921779445</v>
+        <v>0.05224554924931013</v>
       </c>
       <c r="F24">
-        <v>1.986331762349835</v>
+        <v>0.9415584742156327</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.298060927454866</v>
+        <v>0.5451671442441324</v>
       </c>
       <c r="J24">
-        <v>0.1792505566603602</v>
+        <v>0.06546707593090861</v>
       </c>
       <c r="K24">
-        <v>0.4440225275169212</v>
+        <v>1.196996022327426</v>
       </c>
       <c r="L24">
-        <v>0.2925218784588637</v>
+        <v>0.1989526744120695</v>
       </c>
       <c r="M24">
-        <v>0.207966261001495</v>
+        <v>0.2775229936868442</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.285139673319804</v>
+        <v>2.406203279594848</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6020059146137555</v>
+        <v>1.077069652197395</v>
       </c>
       <c r="C25">
-        <v>0.09022388613966115</v>
+        <v>0.1130544336920281</v>
       </c>
       <c r="D25">
-        <v>0.1158248966158268</v>
+        <v>0.08089080033393969</v>
       </c>
       <c r="E25">
-        <v>0.1303018029128573</v>
+        <v>0.05101209313194666</v>
       </c>
       <c r="F25">
-        <v>2.000405168270852</v>
+        <v>0.9198487281140473</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.313939231779145</v>
+        <v>0.5581950874444424</v>
       </c>
       <c r="J25">
-        <v>0.1811145142223971</v>
+        <v>0.06867881751955007</v>
       </c>
       <c r="K25">
-        <v>0.3800357570525534</v>
+        <v>0.9817521519242405</v>
       </c>
       <c r="L25">
-        <v>0.2879278779314873</v>
+        <v>0.1741699811626347</v>
       </c>
       <c r="M25">
-        <v>0.1954204662692725</v>
+        <v>0.2296152670089455</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.336282699052845</v>
+        <v>2.396081292286169</v>
       </c>
     </row>
   </sheetData>
